--- a/Suivi_ctrl_non_conforme.xlsx
+++ b/Suivi_ctrl_non_conforme.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -23,7 +23,10 @@
     <t>Voiture</t>
   </si>
   <si>
-    <t>Paramètre</t>
+    <t>Résultat IV3 gauche</t>
+  </si>
+  <si>
+    <t>Résultat IV3 droite</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -87,6 +90,9 @@
       <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
